--- a/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S6/S6_template.xlsx
+++ b/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S6/S6_template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="8" autoFilterDateGrouping="1" firstSheet="2" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="605" visibility="visible" windowHeight="16580" windowWidth="28800" xWindow="0" yWindow="460"/>
+    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="2" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="605" visibility="visible" windowHeight="16580" windowWidth="28800" xWindow="0" yWindow="460"/>
   </bookViews>
   <sheets>
     <sheet name="legend" sheetId="1" state="visible" r:id="rId1"/>
@@ -3919,8 +3919,8 @@
   </sheetPr>
   <dimension ref="A1:I211"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4926,11 +4926,7 @@
           <t>Additive - amount</t>
         </is>
       </c>
-      <c r="B78" s="95" t="inlineStr">
-        <is>
-          <t>twice its weight ratio</t>
-        </is>
-      </c>
+      <c r="B78" s="95" t="n"/>
       <c r="C78" s="95" t="n"/>
       <c r="D78" s="93" t="n"/>
       <c r="F78" s="99" t="inlineStr">
@@ -11567,8 +11563,8 @@
   </sheetPr>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -12511,8 +12507,8 @@
   </sheetPr>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
